--- a/Test-Data/Book1.xlsx
+++ b/Test-Data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eclipse\eclipse\ATT 19 August class\TestDrivenDev_Framework\Test-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73AA46B-E6C8-474C-BF7A-ECA18E135D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F4BBCC-15C3-4E99-8D7E-97F0B3FC895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0AA740CF-1B80-496F-A302-60CCCAA54BBB}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
